--- a/legislator/property/output/normal/陳碧涵_2012-04-25_財產申報表_tmpd4df1.xlsx
+++ b/legislator/property/output/normal/陳碧涵_2012-04-25_財產申報表_tmpd4df1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="130">
   <si>
     <t>土地坐落</t>
   </si>
@@ -198,6 +198,15 @@
     <t>total</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
     <t>兆豐金融控股股份有限公 司</t>
   </si>
   <si>
@@ -301,6 +310,9 @@
   </si>
   <si>
     <t>22，160</t>
+  </si>
+  <si>
+    <t>2012-04-25</t>
   </si>
   <si>
     <t>保險公司</t>
@@ -1325,13 +1337,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>53</v>
       </c>
@@ -1350,13 +1362,22 @@
       <c r="G1" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>24</v>
@@ -1368,18 +1389,27 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G2" s="2">
         <v>10200</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>66</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>24</v>
@@ -1391,18 +1421,27 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G3" s="2">
         <v>13020</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>67</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>24</v>
@@ -1414,18 +1453,27 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G4" s="2">
         <v>5890</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>68</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>24</v>
@@ -1437,18 +1485,27 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G5" s="2">
         <v>36300</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>69</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>24</v>
@@ -1460,18 +1517,27 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G6" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>71</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>24</v>
@@ -1483,18 +1549,27 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G7" s="2">
         <v>1510</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>72</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>24</v>
@@ -1506,18 +1581,27 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G8" s="2">
         <v>22440</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>73</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>24</v>
@@ -1529,18 +1613,27 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G9" s="2">
         <v>2370</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>74</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>24</v>
@@ -1552,18 +1645,27 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G10" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>75</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>24</v>
@@ -1575,18 +1677,27 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G11" s="2">
         <v>150060</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>76</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>24</v>
@@ -1598,18 +1709,27 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G12" s="2">
         <v>1690</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>77</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>24</v>
@@ -1621,18 +1741,27 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G13" s="2">
         <v>28870</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1">
         <v>78</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>24</v>
@@ -1644,18 +1773,27 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>96</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1">
         <v>79</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>24</v>
@@ -1667,18 +1805,27 @@
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G15" s="2">
         <v>2070</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1">
         <v>80</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>24</v>
@@ -1690,18 +1837,27 @@
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G16" s="2">
         <v>21800</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1">
         <v>81</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>24</v>
@@ -1713,18 +1869,27 @@
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G17" s="2">
         <v>27950</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1">
         <v>82</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>24</v>
@@ -1736,18 +1901,27 @@
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G18" s="2">
         <v>52800</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1">
         <v>83</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>24</v>
@@ -1759,18 +1933,27 @@
         <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G19" s="2">
         <v>360</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J19" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1">
         <v>84</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>24</v>
@@ -1782,18 +1965,27 @@
         <v>10</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G20" s="2">
         <v>22970</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J20" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1">
         <v>85</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>24</v>
@@ -1805,18 +1997,27 @@
         <v>10</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G21" s="2">
         <v>12890</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J21" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1">
         <v>86</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>24</v>
@@ -1828,18 +2029,27 @@
         <v>10</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G22" s="2">
         <v>1220</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J22" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1">
         <v>87</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>24</v>
@@ -1851,18 +2061,27 @@
         <v>10</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G23" s="2">
         <v>14130</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J23" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1">
         <v>88</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>24</v>
@@ -1874,18 +2093,27 @@
         <v>10</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G24" s="2">
         <v>11640</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J24" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1">
         <v>89</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>25</v>
@@ -1897,18 +2125,27 @@
         <v>10</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G25" s="2">
         <v>1010</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J25" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1">
         <v>90</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>25</v>
@@ -1920,18 +2157,27 @@
         <v>10</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G26" s="2">
         <v>0.94</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J26" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1">
         <v>91</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>25</v>
@@ -1943,18 +2189,27 @@
         <v>10</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G27" s="2">
         <v>7414820</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J27" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1">
         <v>92</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>25</v>
@@ -1966,18 +2221,27 @@
         <v>10</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G28" s="2">
         <v>362720</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="H28" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J28" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1">
         <v>93</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>25</v>
@@ -1989,18 +2253,27 @@
         <v>10</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G29" s="2">
         <v>1920</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="H29" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J29" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1">
         <v>94</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>25</v>
@@ -2012,18 +2285,27 @@
         <v>10</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G30" s="2">
         <v>1220</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="H30" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J30" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1">
         <v>95</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>25</v>
@@ -2035,18 +2317,27 @@
         <v>10</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G31" s="2">
         <v>33000</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="H31" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J31" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1">
         <v>96</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>24</v>
@@ -2058,18 +2349,27 @@
         <v>10</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G32" s="2">
         <v>12120</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="H32" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J32" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1">
         <v>97</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>25</v>
@@ -2081,21 +2381,30 @@
         <v>10</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G33" s="2">
         <v>900</v>
       </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="H33" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J33" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1">
         <v>98</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D34" s="2">
         <v>2180</v>
@@ -2104,21 +2413,30 @@
         <v>10</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G34" s="2">
         <v>21800</v>
       </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="H34" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J34" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1">
         <v>100</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D35" s="2">
         <v>2252</v>
@@ -2127,41 +2445,59 @@
         <v>10</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G35" s="2">
         <v>22520</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J35" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1">
         <v>101</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E36" s="2">
         <v>10</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G36" s="2">
         <v>34420</v>
       </c>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="H36" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J36" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1">
         <v>102</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>24</v>
@@ -2173,10 +2509,19 @@
         <v>10</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G37" s="2">
         <v>8400</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J37" s="2">
+        <v>1752</v>
       </c>
     </row>
   </sheetData>
@@ -2194,16 +2539,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2211,16 +2556,16 @@
         <v>125</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2228,16 +2573,16 @@
         <v>126</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2245,16 +2590,16 @@
         <v>127</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -2272,22 +2617,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2295,22 +2640,22 @@
         <v>137</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E2" s="2">
         <v>2020088</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2318,22 +2663,22 @@
         <v>138</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E3" s="2">
         <v>2747491</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2341,22 +2686,22 @@
         <v>139</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E4" s="2">
         <v>460745</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2364,22 +2709,22 @@
         <v>141</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E5" s="2">
         <v>1213710</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2387,22 +2732,22 @@
         <v>142</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E6" s="2">
         <v>15436</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳碧涵_2012-04-25_財產申報表_tmpd4df1.xlsx
+++ b/legislator/property/output/normal/陳碧涵_2012-04-25_財產申報表_tmpd4df1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="132">
   <si>
     <t>土地坐落</t>
   </si>
@@ -198,6 +198,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -207,10 +210,10 @@
     <t>legislator_id</t>
   </si>
   <si>
-    <t>兆豐金融控股股份有限公 司</t>
-  </si>
-  <si>
-    <t>和碩聯合科技股份有限公 司</t>
+    <t>兆豐金融控股股份有限公司</t>
+  </si>
+  <si>
+    <t>和碩聯合科技股份有限公司</t>
   </si>
   <si>
     <t>華碩電腦股份有限公司</t>
@@ -228,13 +231,13 @@
     <t>禾伸堂企業股份有限公司</t>
   </si>
   <si>
-    <t>矽品精密工業股份有限公 司</t>
+    <t>矽品精密工業股份有限公司</t>
   </si>
   <si>
     <t>海光企業股份有限公司</t>
   </si>
   <si>
-    <t>鴻海精密工業股份有限公 司</t>
+    <t>鴻海精密工業股份有限公司</t>
   </si>
   <si>
     <t>麗臺科技股份有限公司</t>
@@ -264,13 +267,13 @@
     <t>奇美電子股份有限公司</t>
   </si>
   <si>
-    <t>漢科糸統科技股份有限公 司</t>
+    <t>漢科糸統科技股份有限公司</t>
   </si>
   <si>
     <t>友達光電股份有限公司</t>
   </si>
   <si>
-    <t>中美矽晶製品股份有限公 司</t>
+    <t>中美矽晶製品股份有限公司</t>
   </si>
   <si>
     <t>中強光電股份有限公司</t>
@@ -279,7 +282,7 @@
     <t>大立光電股份有限公司</t>
   </si>
   <si>
-    <t>東貝光電科技股份有限公 司</t>
+    <t>東貝光電科技股份有限公司</t>
   </si>
   <si>
     <t>宏齊科技股份有限公司</t>
@@ -291,10 +294,10 @@
     <t>合晶科技股份有限公司</t>
   </si>
   <si>
-    <t>鴻準精密工業股份有限公 司</t>
-  </si>
-  <si>
-    <t>第一金融控股股份有限公 司</t>
+    <t>鴻準精密工業股份有限公司</t>
+  </si>
+  <si>
+    <t>第一金融控股股份有限公司</t>
   </si>
   <si>
     <t>晶磊興業股份有限公司</t>
@@ -303,13 +306,16 @@
     <t>廖〇陽</t>
   </si>
   <si>
-    <t>3，442</t>
+    <t>3442</t>
   </si>
   <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>22，160</t>
+    <t>22160</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2012-04-25</t>
@@ -1337,13 +1343,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>53</v>
       </c>
@@ -1371,13 +1377,16 @@
       <c r="J1" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>24</v>
@@ -1389,27 +1398,30 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G2" s="2">
         <v>10200</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>99</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>66</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>24</v>
@@ -1421,27 +1433,30 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G3" s="2">
         <v>13020</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>99</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>67</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>24</v>
@@ -1453,27 +1468,30 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G4" s="2">
         <v>5890</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>99</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>68</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>24</v>
@@ -1485,27 +1503,30 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G5" s="2">
         <v>36300</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>99</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>69</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>24</v>
@@ -1517,27 +1538,30 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G6" s="2">
         <v>10000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>99</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>71</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>24</v>
@@ -1549,27 +1573,30 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G7" s="2">
         <v>1510</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>99</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>72</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>24</v>
@@ -1581,27 +1608,30 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G8" s="2">
         <v>22440</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>99</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>73</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>24</v>
@@ -1613,27 +1643,30 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G9" s="2">
         <v>2370</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J9" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>99</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>74</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>24</v>
@@ -1645,27 +1678,30 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G10" s="2">
         <v>10000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>99</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>75</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>24</v>
@@ -1677,27 +1713,30 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G11" s="2">
         <v>150060</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J11" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>99</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>76</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>24</v>
@@ -1709,27 +1748,30 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G12" s="2">
         <v>1690</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J12" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>99</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>77</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>24</v>
@@ -1741,27 +1783,30 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G13" s="2">
         <v>28870</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J13" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>99</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>78</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>24</v>
@@ -1773,27 +1818,30 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J14" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>99</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>79</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>24</v>
@@ -1805,27 +1853,30 @@
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G15" s="2">
         <v>2070</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J15" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>99</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>80</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>24</v>
@@ -1837,27 +1888,30 @@
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G16" s="2">
         <v>21800</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J16" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>99</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>81</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>24</v>
@@ -1869,27 +1923,30 @@
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G17" s="2">
         <v>27950</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J17" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+        <v>99</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>82</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>24</v>
@@ -1901,27 +1958,30 @@
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G18" s="2">
         <v>52800</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J18" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>99</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K18" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1">
         <v>83</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>24</v>
@@ -1933,27 +1993,30 @@
         <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G19" s="2">
         <v>360</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J19" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>99</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K19" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1">
         <v>84</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>24</v>
@@ -1965,27 +2028,30 @@
         <v>10</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G20" s="2">
         <v>22970</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J20" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <v>99</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K20" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1">
         <v>85</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>24</v>
@@ -1997,27 +2063,30 @@
         <v>10</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G21" s="2">
         <v>12890</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J21" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+        <v>99</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K21" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1">
         <v>86</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>24</v>
@@ -2029,27 +2098,30 @@
         <v>10</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G22" s="2">
         <v>1220</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J22" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+        <v>99</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K22" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1">
         <v>87</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>24</v>
@@ -2061,27 +2133,30 @@
         <v>10</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G23" s="2">
         <v>14130</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J23" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+        <v>99</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K23" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1">
         <v>88</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>24</v>
@@ -2093,27 +2168,30 @@
         <v>10</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G24" s="2">
         <v>11640</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J24" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+        <v>99</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K24" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1">
         <v>89</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>25</v>
@@ -2125,27 +2203,30 @@
         <v>10</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G25" s="2">
         <v>1010</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J25" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+        <v>99</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K25" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1">
         <v>90</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>25</v>
@@ -2157,27 +2238,30 @@
         <v>10</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G26" s="2">
         <v>0.94</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J26" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
+        <v>99</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K26" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1">
         <v>91</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>25</v>
@@ -2189,27 +2273,30 @@
         <v>10</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G27" s="2">
         <v>7414820</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J27" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+        <v>99</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K27" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1">
         <v>92</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>25</v>
@@ -2221,27 +2308,30 @@
         <v>10</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G28" s="2">
         <v>362720</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J28" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+        <v>99</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K28" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1">
         <v>93</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>25</v>
@@ -2253,27 +2343,30 @@
         <v>10</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G29" s="2">
         <v>1920</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J29" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
+        <v>99</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K29" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1">
         <v>94</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>25</v>
@@ -2285,27 +2378,30 @@
         <v>10</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G30" s="2">
         <v>1220</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J30" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
+        <v>99</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K30" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1">
         <v>95</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>25</v>
@@ -2317,27 +2413,30 @@
         <v>10</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G31" s="2">
         <v>33000</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J31" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
+        <v>99</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K31" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1">
         <v>96</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>24</v>
@@ -2349,27 +2448,30 @@
         <v>10</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G32" s="2">
         <v>12120</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J32" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
+        <v>99</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K32" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1">
         <v>97</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>25</v>
@@ -2381,30 +2483,33 @@
         <v>10</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G33" s="2">
         <v>900</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J33" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
+        <v>99</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K33" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1">
         <v>98</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D34" s="2">
         <v>2180</v>
@@ -2413,30 +2518,33 @@
         <v>10</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G34" s="2">
         <v>21800</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J34" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
+        <v>99</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K34" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1">
         <v>100</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D35" s="2">
         <v>2252</v>
@@ -2445,59 +2553,65 @@
         <v>10</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G35" s="2">
         <v>22520</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J35" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
+        <v>99</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K35" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1">
         <v>101</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E36" s="2">
         <v>10</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G36" s="2">
         <v>34420</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J36" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
+        <v>99</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K36" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1">
         <v>102</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>24</v>
@@ -2509,18 +2623,21 @@
         <v>10</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G37" s="2">
         <v>8400</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J37" s="2">
+        <v>99</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K37" s="2">
         <v>1752</v>
       </c>
     </row>
@@ -2539,16 +2656,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2556,16 +2673,16 @@
         <v>125</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2573,16 +2690,16 @@
         <v>126</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2590,16 +2707,16 @@
         <v>127</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2617,22 +2734,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2640,22 +2757,22 @@
         <v>137</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E2" s="2">
         <v>2020088</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2663,22 +2780,22 @@
         <v>138</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E3" s="2">
         <v>2747491</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2686,22 +2803,22 @@
         <v>139</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E4" s="2">
         <v>460745</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2709,22 +2826,22 @@
         <v>141</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E5" s="2">
         <v>1213710</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2732,22 +2849,22 @@
         <v>142</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E6" s="2">
         <v>15436</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳碧涵_2012-04-25_財產申報表_tmpd4df1.xlsx
+++ b/legislator/property/output/normal/陳碧涵_2012-04-25_財產申報表_tmpd4df1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="137">
   <si>
     <t>土地坐落</t>
   </si>
@@ -201,6 +201,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -210,6 +213,12 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>兆豐金融控股股份有限公司</t>
   </si>
   <si>
@@ -318,7 +327,13 @@
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2012-04-25</t>
+  </si>
+  <si>
+    <t>tmpd4df1</t>
   </si>
   <si>
     <t>保險公司</t>
@@ -1343,13 +1358,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>53</v>
       </c>
@@ -1380,13 +1395,22 @@
       <c r="K1" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>24</v>
@@ -1398,30 +1422,39 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G2" s="2">
         <v>10200</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>103</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1752</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="N2" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>66</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>24</v>
@@ -1433,30 +1466,39 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G3" s="2">
         <v>13020</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>103</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1752</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="N3" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>67</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>24</v>
@@ -1468,30 +1510,39 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G4" s="2">
         <v>5890</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>103</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1752</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="N4" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>68</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>24</v>
@@ -1503,30 +1554,39 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G5" s="2">
         <v>36300</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>103</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1752</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="N5" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>69</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>24</v>
@@ -1538,30 +1598,39 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G6" s="2">
         <v>10000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K6" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>103</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1752</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="N6" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>71</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>24</v>
@@ -1573,30 +1642,39 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G7" s="2">
         <v>1510</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K7" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>103</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1752</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="N7" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>72</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>24</v>
@@ -1608,30 +1686,39 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G8" s="2">
         <v>22440</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K8" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>103</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1752</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="N8" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>73</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>24</v>
@@ -1643,30 +1730,39 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G9" s="2">
         <v>2370</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K9" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>103</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" s="2">
+        <v>1752</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="N9" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>74</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>24</v>
@@ -1678,30 +1774,39 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G10" s="2">
         <v>10000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K10" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>103</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" s="2">
+        <v>1752</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="N10" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>75</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>24</v>
@@ -1713,30 +1818,39 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G11" s="2">
         <v>150060</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K11" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>103</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11" s="2">
+        <v>1752</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="N11" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>76</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>24</v>
@@ -1748,30 +1862,39 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G12" s="2">
         <v>1690</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K12" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>103</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" s="2">
+        <v>1752</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="N12" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>77</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>24</v>
@@ -1783,30 +1906,39 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G13" s="2">
         <v>28870</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K13" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>103</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13" s="2">
+        <v>1752</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="N13" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>78</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>24</v>
@@ -1818,30 +1950,39 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K14" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>103</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L14" s="2">
+        <v>1752</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="N14" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>79</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>24</v>
@@ -1853,30 +1994,39 @@
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G15" s="2">
         <v>2070</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K15" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>103</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L15" s="2">
+        <v>1752</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="N15" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>80</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>24</v>
@@ -1888,30 +2038,39 @@
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G16" s="2">
         <v>21800</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K16" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>103</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L16" s="2">
+        <v>1752</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="N16" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>81</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>24</v>
@@ -1923,30 +2082,39 @@
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G17" s="2">
         <v>27950</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K17" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>103</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L17" s="2">
+        <v>1752</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="N17" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>82</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>24</v>
@@ -1958,30 +2126,39 @@
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G18" s="2">
         <v>52800</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K18" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>103</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L18" s="2">
+        <v>1752</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="N18" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>83</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>24</v>
@@ -1993,30 +2170,39 @@
         <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G19" s="2">
         <v>360</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K19" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>103</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L19" s="2">
+        <v>1752</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="N19" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>84</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>24</v>
@@ -2028,30 +2214,39 @@
         <v>10</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G20" s="2">
         <v>22970</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K20" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <v>103</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L20" s="2">
+        <v>1752</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="N20" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>85</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>24</v>
@@ -2063,30 +2258,39 @@
         <v>10</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G21" s="2">
         <v>12890</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K21" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>103</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L21" s="2">
+        <v>1752</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="N21" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>86</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>24</v>
@@ -2098,30 +2302,39 @@
         <v>10</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G22" s="2">
         <v>1220</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K22" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <v>103</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L22" s="2">
+        <v>1752</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="N22" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>87</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>24</v>
@@ -2133,30 +2346,39 @@
         <v>10</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G23" s="2">
         <v>14130</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K23" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+        <v>103</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L23" s="2">
+        <v>1752</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="N23" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>88</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>24</v>
@@ -2168,30 +2390,39 @@
         <v>10</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G24" s="2">
         <v>11640</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K24" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <v>103</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L24" s="2">
+        <v>1752</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="N24" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>89</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>25</v>
@@ -2203,30 +2434,39 @@
         <v>10</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G25" s="2">
         <v>1010</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K25" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+        <v>103</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L25" s="2">
+        <v>1752</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="N25" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" s="1">
         <v>90</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>25</v>
@@ -2238,30 +2478,39 @@
         <v>10</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G26" s="2">
         <v>0.94</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K26" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+        <v>103</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L26" s="2">
+        <v>1752</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="N26" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="1">
         <v>91</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>25</v>
@@ -2273,30 +2522,39 @@
         <v>10</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G27" s="2">
         <v>7414820</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K27" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+        <v>103</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L27" s="2">
+        <v>1752</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="N27" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" s="1">
         <v>92</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>25</v>
@@ -2308,30 +2566,39 @@
         <v>10</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G28" s="2">
         <v>362720</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K28" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+        <v>103</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L28" s="2">
+        <v>1752</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="N28" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" s="1">
         <v>93</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>25</v>
@@ -2343,30 +2610,39 @@
         <v>10</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G29" s="2">
         <v>1920</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K29" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+        <v>103</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L29" s="2">
+        <v>1752</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="N29" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" s="1">
         <v>94</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>25</v>
@@ -2378,30 +2654,39 @@
         <v>10</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G30" s="2">
         <v>1220</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K30" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+        <v>103</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L30" s="2">
+        <v>1752</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="N30" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" s="1">
         <v>95</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>25</v>
@@ -2413,30 +2698,39 @@
         <v>10</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G31" s="2">
         <v>33000</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K31" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+        <v>103</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L31" s="2">
+        <v>1752</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="N31" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" s="1">
         <v>96</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>24</v>
@@ -2448,30 +2742,39 @@
         <v>10</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G32" s="2">
         <v>12120</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K32" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+        <v>103</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L32" s="2">
+        <v>1752</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="N32" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" s="1">
         <v>97</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>25</v>
@@ -2483,33 +2786,42 @@
         <v>10</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G33" s="2">
         <v>900</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K33" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+        <v>103</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L33" s="2">
+        <v>1752</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="N33" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" s="1">
         <v>98</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D34" s="2">
         <v>2180</v>
@@ -2518,33 +2830,42 @@
         <v>10</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G34" s="2">
         <v>21800</v>
       </c>
       <c r="H34" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L34" s="2">
+        <v>1752</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="N34" s="2">
         <v>98</v>
       </c>
-      <c r="I34" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K34" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" s="1">
         <v>100</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D35" s="2">
         <v>2252</v>
@@ -2553,65 +2874,83 @@
         <v>10</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G35" s="2">
         <v>22520</v>
       </c>
       <c r="H35" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L35" s="2">
+        <v>1752</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="N35" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="1">
+        <v>101</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="I35" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K35" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="1">
-        <v>101</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="E36" s="2">
         <v>10</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G36" s="2">
         <v>34420</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K36" s="2">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+        <v>103</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L36" s="2">
+        <v>1752</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="N36" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37" s="1">
         <v>102</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>24</v>
@@ -2623,22 +2962,31 @@
         <v>10</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G37" s="2">
         <v>8400</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K37" s="2">
-        <v>1752</v>
+        <v>103</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L37" s="2">
+        <v>1752</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="N37" s="2">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2656,16 +3004,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2673,16 +3021,16 @@
         <v>125</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2690,16 +3038,16 @@
         <v>126</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2707,16 +3055,16 @@
         <v>127</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2734,22 +3082,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2757,22 +3105,22 @@
         <v>137</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E2" s="2">
         <v>2020088</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2780,22 +3128,22 @@
         <v>138</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E3" s="2">
         <v>2747491</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2803,22 +3151,22 @@
         <v>139</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E4" s="2">
         <v>460745</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2826,22 +3174,22 @@
         <v>141</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E5" s="2">
         <v>1213710</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2849,22 +3197,22 @@
         <v>142</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E6" s="2">
         <v>15436</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳碧涵_2012-04-25_財產申報表_tmpd4df1.xlsx
+++ b/legislator/property/output/normal/陳碧涵_2012-04-25_財產申報表_tmpd4df1.xlsx
@@ -19,171 +19,210 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="137">
-  <si>
-    <t>土地坐落</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="140">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>臺中市北屯區東峰段00580000地號</t>
+  </si>
+  <si>
+    <t>桃園縣桃園市雙龍段03790000地號</t>
+  </si>
+  <si>
+    <t>桃圜縣桃圜市雙龍段03810000地號</t>
+  </si>
+  <si>
+    <t>桃圜縣桃園市雙龍段03750000地號</t>
+  </si>
+  <si>
+    <t>桃圜縣桃圜市雙龍段03820000地號</t>
+  </si>
+  <si>
+    <t>桃園縣桃圜市雙龍段03850000地號</t>
+  </si>
+  <si>
+    <t>桃園縣桃園市雙龍段03860000地號</t>
+  </si>
+  <si>
+    <t>桃園縣桃園市雙龍段03910000地號</t>
+  </si>
+  <si>
+    <t>桃園縣中壢市三座屋段三座屋小段10130000地號</t>
+  </si>
+  <si>
+    <t>桃園縣中壢市三座屋段三座屋小段10130001地號</t>
+  </si>
+  <si>
+    <t>桃圜縣中壢市三座屋段三座屋小段10130002地號</t>
+  </si>
+  <si>
+    <t>桃園縣中壢市後寮段03620017地號</t>
+  </si>
+  <si>
+    <t>新北市永和區民治段02590000地號</t>
+  </si>
+  <si>
+    <t>100000分之920</t>
+  </si>
+  <si>
+    <t>4分之1</t>
+  </si>
+  <si>
+    <t>36200分之2985</t>
+  </si>
+  <si>
+    <t>5分之1</t>
+  </si>
+  <si>
+    <t>陳碧涵</t>
+  </si>
+  <si>
+    <t>廖賢哲</t>
+  </si>
+  <si>
+    <t>94年11月14日</t>
+  </si>
+  <si>
+    <t>95年04月06日</t>
+  </si>
+  <si>
+    <t>95年04月06H</t>
+  </si>
+  <si>
+    <t>95年04月06U</t>
+  </si>
+  <si>
+    <t>95年03月23日</t>
+  </si>
+  <si>
+    <t>84年06月13闩</t>
+  </si>
+  <si>
+    <t>76年05月29日</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>繼承</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>(超媧石年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-04-25</t>
+  </si>
+  <si>
+    <t>tmpd4df1</t>
+  </si>
+  <si>
+    <t>建物標示</t>
+  </si>
+  <si>
+    <t>面積（平方</t>
+  </si>
+  <si>
+    <t>權利範圍</t>
   </si>
   <si>
     <t>所有權人</t>
   </si>
   <si>
+    <t>登記（取</t>
+  </si>
+  <si>
+    <t>取得價額</t>
+  </si>
+  <si>
+    <t>臺中市北屯區東峰段03952000建號</t>
+  </si>
+  <si>
+    <t>桃圜縣中壢市三座屋段三座屋小段00778000建號</t>
+  </si>
+  <si>
+    <t>桃圜縣中壢市後寮段段08813000建號</t>
+  </si>
+  <si>
+    <t>新北市永和區民治段01633000建號</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>84年06月13曰</t>
+  </si>
+  <si>
+    <t>貝賣</t>
+  </si>
+  <si>
+    <t>廠牌型號</t>
+  </si>
+  <si>
+    <t>汽缸容量</t>
+  </si>
+  <si>
+    <t>所有人</t>
+  </si>
+  <si>
     <t>登記（取得）時間</t>
   </si>
   <si>
     <t>登記（取得）原因</t>
   </si>
   <si>
-    <t>取得價額</t>
-  </si>
-  <si>
-    <t>臺中市北屯區東峰段0058-0000 地號</t>
-  </si>
-  <si>
-    <t>桃園縣桃園市雙龍段0379-0000 地號</t>
-  </si>
-  <si>
-    <t>桃圜縣桃圜市雙龍段0381 -0000 地號</t>
-  </si>
-  <si>
-    <t>桃圜縣桃園市雙龍段0375-0000 地號</t>
-  </si>
-  <si>
-    <t>桃圜縣桃圜市雙龍段0382-0000 地號</t>
-  </si>
-  <si>
-    <t>桃園縣桃圜市雙龍段0385-0000 地號</t>
-  </si>
-  <si>
-    <t>桃園縣桃園市雙龍段0386-0000 地號</t>
-  </si>
-  <si>
-    <t>桃園縣桃園市雙龍段0391 -0000 地號</t>
-  </si>
-  <si>
-    <t>桃園縣中壢市三座屋段三座屋 小段1013-0000地號</t>
-  </si>
-  <si>
-    <t>桃園縣中壢市三座屋段三座屋 小段1013-0001地號</t>
-  </si>
-  <si>
-    <t>桃圜縣中壢市三座屋段三座屋 小段1013-0002地號</t>
-  </si>
-  <si>
-    <t>桃園縣中壢市後寮段0362-0017 地號</t>
-  </si>
-  <si>
-    <t>新北市永和區民治段0259-0000 地號</t>
-  </si>
-  <si>
-    <t>100000 分 之920</t>
-  </si>
-  <si>
-    <t>4分之1</t>
-  </si>
-  <si>
-    <t>36200分之 2985</t>
-  </si>
-  <si>
-    <t>5分之1</t>
-  </si>
-  <si>
-    <t>陳碧涵</t>
-  </si>
-  <si>
-    <t>廖賢哲</t>
-  </si>
-  <si>
-    <t>94年11月 14日</t>
-  </si>
-  <si>
-    <t>95年04月 06日</t>
-  </si>
-  <si>
-    <t>95年04月 06 H</t>
-  </si>
-  <si>
-    <t>95年04月 06 U</t>
-  </si>
-  <si>
-    <t>95年03月 23日</t>
-  </si>
-  <si>
-    <t>84年06月 13闩</t>
-  </si>
-  <si>
-    <t>76年05月 29日</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>繼承</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>(超媧石年）</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方</t>
-  </si>
-  <si>
-    <t>權利範圍</t>
-  </si>
-  <si>
-    <t>登記（取</t>
-  </si>
-  <si>
-    <t>臺中市北屯區東峰段03952-000 建號</t>
-  </si>
-  <si>
-    <t>桃圜縣中壢市三座屋段三座屋 小段00778-000建號</t>
-  </si>
-  <si>
-    <t>桃圜縣中壢市後寮段段 08813-000 建號</t>
-  </si>
-  <si>
-    <t>新北市永和區民治段01633-000 建號</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>84年06月 13曰</t>
-  </si>
-  <si>
-    <t>貝賣</t>
-  </si>
-  <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
     <t>國瑞Camry</t>
   </si>
   <si>
-    <t>96年01月 12日</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
+    <t>96年01月12日</t>
   </si>
   <si>
     <t>quantity</t>
@@ -198,27 +237,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>兆豐金融控股股份有限公司</t>
   </si>
   <si>
@@ -327,15 +345,6 @@
     <t>stock</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2012-04-25</t>
-  </si>
-  <si>
-    <t>tmpd4df1</t>
-  </si>
-  <si>
     <t>保險公司</t>
   </si>
   <si>
@@ -366,13 +375,13 @@
     <t>廖◦陽</t>
   </si>
   <si>
-    <t>81.8.24生效，已交20年，餘 額:109,294</t>
-  </si>
-  <si>
-    <t>88.11.生效,108.11 止.</t>
-  </si>
-  <si>
-    <t>94.12.25生效，20年期.</t>
+    <t>81.8.24生效已交20年餘額:109294</t>
+  </si>
+  <si>
+    <t>88.11.生效108.11止.</t>
+  </si>
+  <si>
+    <t>94.12.25生效20年期.</t>
   </si>
   <si>
     <t>種類</t>
@@ -402,34 +411,34 @@
     <t>信用貸款</t>
   </si>
   <si>
-    <t>台灣銀行(水湳分行） 臺中市北屯區祟德路</t>
-  </si>
-  <si>
-    <t>第一銀行(進化分行） 臺中市北屯區進化北路</t>
-  </si>
-  <si>
-    <t>合作金庫(中興分行） 臺中市北屯區公圜路</t>
-  </si>
-  <si>
-    <t>94年12月 13曰</t>
-  </si>
-  <si>
-    <t>94年12月 13日</t>
-  </si>
-  <si>
-    <t>96年08月 30日</t>
-  </si>
-  <si>
-    <t>89年01月 27日</t>
-  </si>
-  <si>
-    <t>94年10月 18闩</t>
+    <t>台灣銀行(水湳分行）臺中市北屯區祟德路</t>
+  </si>
+  <si>
+    <t>第一銀行(進化分行）臺中市北屯區進化北路</t>
+  </si>
+  <si>
+    <t>合作金庫(中興分行）臺中市北屯區公圜路</t>
+  </si>
+  <si>
+    <t>94年12月13曰</t>
+  </si>
+  <si>
+    <t>94年12月13日</t>
+  </si>
+  <si>
+    <t>96年08月30日</t>
+  </si>
+  <si>
+    <t>89年01月27日</t>
+  </si>
+  <si>
+    <t>94年10月18闩</t>
   </si>
   <si>
     <t>購屋貸款</t>
   </si>
   <si>
-    <t>個人資金調 度</t>
+    <t>個人資金調度</t>
   </si>
 </sst>
 </file>
@@ -788,13 +797,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -816,343 +825,637 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>27.36</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1752</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>1.73</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1752</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O3" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>37.65</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1752</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O4" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>11.24</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1752</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O5" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
         <v>47.62</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1752</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O6" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2">
         <v>0.17</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1752</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O7" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2">
         <v>28.12</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1752</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O8" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2">
         <v>17.13</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1752</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O9" s="2">
         <v>21</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2">
         <v>2.5</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1752</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O10" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2">
         <v>14</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1752</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O11" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C12" s="2">
         <v>1.25</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1752</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O12" s="2">
         <v>24</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C13" s="2">
         <v>29.84</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M13" s="2">
+        <v>1752</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O13" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C14" s="2">
         <v>23.28</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1752</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O14" s="2">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1170,25 +1473,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1196,25 +1499,25 @@
         <v>31</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2">
         <v>184</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1222,25 +1525,25 @@
         <v>32</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2">
         <v>59.73</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1248,25 +1551,25 @@
         <v>33</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="C4" s="2">
         <v>119.6</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1274,25 +1577,25 @@
         <v>34</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="C5" s="2">
         <v>62.8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1310,22 +1613,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1333,22 +1636,22 @@
         <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="C2" s="2">
         <v>1998</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1366,43 +1669,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1410,10 +1713,10 @@
         <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2">
         <v>1020</v>
@@ -1422,28 +1725,28 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="G2" s="2">
         <v>10200</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="L2" s="2">
         <v>1752</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="N2" s="2">
         <v>65</v>
@@ -1454,10 +1757,10 @@
         <v>66</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D3" s="2">
         <v>1302</v>
@@ -1466,28 +1769,28 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="G3" s="2">
         <v>13020</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="L3" s="2">
         <v>1752</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="N3" s="2">
         <v>66</v>
@@ -1498,10 +1801,10 @@
         <v>67</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D4" s="2">
         <v>589</v>
@@ -1510,28 +1813,28 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="G4" s="2">
         <v>5890</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="L4" s="2">
         <v>1752</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="N4" s="2">
         <v>67</v>
@@ -1542,10 +1845,10 @@
         <v>68</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D5" s="2">
         <v>3630</v>
@@ -1554,28 +1857,28 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="G5" s="2">
         <v>36300</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="L5" s="2">
         <v>1752</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="N5" s="2">
         <v>68</v>
@@ -1586,10 +1889,10 @@
         <v>69</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D6" s="2">
         <v>1000</v>
@@ -1598,28 +1901,28 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="G6" s="2">
         <v>10000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="L6" s="2">
         <v>1752</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="N6" s="2">
         <v>69</v>
@@ -1630,10 +1933,10 @@
         <v>71</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D7" s="2">
         <v>151</v>
@@ -1642,28 +1945,28 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="G7" s="2">
         <v>1510</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="L7" s="2">
         <v>1752</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="N7" s="2">
         <v>71</v>
@@ -1674,10 +1977,10 @@
         <v>72</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D8" s="2">
         <v>2244</v>
@@ -1686,28 +1989,28 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="G8" s="2">
         <v>22440</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="L8" s="2">
         <v>1752</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="N8" s="2">
         <v>72</v>
@@ -1718,10 +2021,10 @@
         <v>73</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D9" s="2">
         <v>237</v>
@@ -1730,28 +2033,28 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="G9" s="2">
         <v>2370</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="L9" s="2">
         <v>1752</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="N9" s="2">
         <v>73</v>
@@ -1762,10 +2065,10 @@
         <v>74</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D10" s="2">
         <v>1000</v>
@@ -1774,28 +2077,28 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="G10" s="2">
         <v>10000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="L10" s="2">
         <v>1752</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="N10" s="2">
         <v>74</v>
@@ -1806,10 +2109,10 @@
         <v>75</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D11" s="2">
         <v>15006</v>
@@ -1818,28 +2121,28 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="G11" s="2">
         <v>150060</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="L11" s="2">
         <v>1752</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="N11" s="2">
         <v>75</v>
@@ -1850,10 +2153,10 @@
         <v>76</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D12" s="2">
         <v>169</v>
@@ -1862,28 +2165,28 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="G12" s="2">
         <v>1690</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="L12" s="2">
         <v>1752</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="N12" s="2">
         <v>76</v>
@@ -1894,10 +2197,10 @@
         <v>77</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D13" s="2">
         <v>2887</v>
@@ -1906,28 +2209,28 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="G13" s="2">
         <v>28870</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="L13" s="2">
         <v>1752</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="N13" s="2">
         <v>77</v>
@@ -1938,10 +2241,10 @@
         <v>78</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D14" s="2">
         <v>2216</v>
@@ -1950,28 +2253,28 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="L14" s="2">
         <v>1752</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="N14" s="2">
         <v>78</v>
@@ -1982,10 +2285,10 @@
         <v>79</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D15" s="2">
         <v>207</v>
@@ -1994,28 +2297,28 @@
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="G15" s="2">
         <v>2070</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="L15" s="2">
         <v>1752</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="N15" s="2">
         <v>79</v>
@@ -2026,10 +2329,10 @@
         <v>80</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D16" s="2">
         <v>2180</v>
@@ -2038,28 +2341,28 @@
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="G16" s="2">
         <v>21800</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="L16" s="2">
         <v>1752</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="N16" s="2">
         <v>80</v>
@@ -2070,10 +2373,10 @@
         <v>81</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D17" s="2">
         <v>2795</v>
@@ -2082,28 +2385,28 @@
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="G17" s="2">
         <v>27950</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="L17" s="2">
         <v>1752</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="N17" s="2">
         <v>81</v>
@@ -2114,10 +2417,10 @@
         <v>82</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D18" s="2">
         <v>5280</v>
@@ -2126,28 +2429,28 @@
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="G18" s="2">
         <v>52800</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="L18" s="2">
         <v>1752</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="N18" s="2">
         <v>82</v>
@@ -2158,10 +2461,10 @@
         <v>83</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D19" s="2">
         <v>36</v>
@@ -2170,28 +2473,28 @@
         <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="G19" s="2">
         <v>360</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="L19" s="2">
         <v>1752</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="N19" s="2">
         <v>83</v>
@@ -2202,10 +2505,10 @@
         <v>84</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D20" s="2">
         <v>2297</v>
@@ -2214,28 +2517,28 @@
         <v>10</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="G20" s="2">
         <v>22970</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="L20" s="2">
         <v>1752</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="N20" s="2">
         <v>84</v>
@@ -2246,10 +2549,10 @@
         <v>85</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D21" s="2">
         <v>1289</v>
@@ -2258,28 +2561,28 @@
         <v>10</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="G21" s="2">
         <v>12890</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="L21" s="2">
         <v>1752</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="N21" s="2">
         <v>85</v>
@@ -2290,10 +2593,10 @@
         <v>86</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D22" s="2">
         <v>122</v>
@@ -2302,28 +2605,28 @@
         <v>10</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="G22" s="2">
         <v>1220</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="L22" s="2">
         <v>1752</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="N22" s="2">
         <v>86</v>
@@ -2334,10 +2637,10 @@
         <v>87</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D23" s="2">
         <v>1413</v>
@@ -2346,28 +2649,28 @@
         <v>10</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="G23" s="2">
         <v>14130</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="L23" s="2">
         <v>1752</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="N23" s="2">
         <v>87</v>
@@ -2378,10 +2681,10 @@
         <v>88</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D24" s="2">
         <v>1164</v>
@@ -2390,28 +2693,28 @@
         <v>10</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="G24" s="2">
         <v>11640</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="L24" s="2">
         <v>1752</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="N24" s="2">
         <v>88</v>
@@ -2422,10 +2725,10 @@
         <v>89</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D25" s="2">
         <v>101</v>
@@ -2434,28 +2737,28 @@
         <v>10</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="G25" s="2">
         <v>1010</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="L25" s="2">
         <v>1752</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="N25" s="2">
         <v>89</v>
@@ -2466,10 +2769,10 @@
         <v>90</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D26" s="2">
         <v>94</v>
@@ -2478,28 +2781,28 @@
         <v>10</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="G26" s="2">
         <v>0.94</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="L26" s="2">
         <v>1752</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="N26" s="2">
         <v>90</v>
@@ -2510,10 +2813,10 @@
         <v>91</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D27" s="2">
         <v>741482</v>
@@ -2522,28 +2825,28 @@
         <v>10</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="G27" s="2">
         <v>7414820</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="L27" s="2">
         <v>1752</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="N27" s="2">
         <v>91</v>
@@ -2554,10 +2857,10 @@
         <v>92</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D28" s="2">
         <v>36272</v>
@@ -2566,28 +2869,28 @@
         <v>10</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="G28" s="2">
         <v>362720</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="L28" s="2">
         <v>1752</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="N28" s="2">
         <v>92</v>
@@ -2598,10 +2901,10 @@
         <v>93</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D29" s="2">
         <v>192</v>
@@ -2610,28 +2913,28 @@
         <v>10</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="G29" s="2">
         <v>1920</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="L29" s="2">
         <v>1752</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="N29" s="2">
         <v>93</v>
@@ -2642,10 +2945,10 @@
         <v>94</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D30" s="2">
         <v>122</v>
@@ -2654,28 +2957,28 @@
         <v>10</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="G30" s="2">
         <v>1220</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="L30" s="2">
         <v>1752</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="N30" s="2">
         <v>94</v>
@@ -2686,10 +2989,10 @@
         <v>95</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D31" s="2">
         <v>3300</v>
@@ -2698,28 +3001,28 @@
         <v>10</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="G31" s="2">
         <v>33000</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="L31" s="2">
         <v>1752</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="N31" s="2">
         <v>95</v>
@@ -2730,10 +3033,10 @@
         <v>96</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D32" s="2">
         <v>1212</v>
@@ -2742,28 +3045,28 @@
         <v>10</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="G32" s="2">
         <v>12120</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="L32" s="2">
         <v>1752</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="N32" s="2">
         <v>96</v>
@@ -2774,10 +3077,10 @@
         <v>97</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D33" s="2">
         <v>90</v>
@@ -2786,28 +3089,28 @@
         <v>10</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="G33" s="2">
         <v>900</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="L33" s="2">
         <v>1752</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="N33" s="2">
         <v>97</v>
@@ -2818,10 +3121,10 @@
         <v>98</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D34" s="2">
         <v>2180</v>
@@ -2830,28 +3133,28 @@
         <v>10</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="G34" s="2">
         <v>21800</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="L34" s="2">
         <v>1752</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="N34" s="2">
         <v>98</v>
@@ -2862,10 +3165,10 @@
         <v>100</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D35" s="2">
         <v>2252</v>
@@ -2874,28 +3177,28 @@
         <v>10</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="G35" s="2">
         <v>22520</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="L35" s="2">
         <v>1752</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="N35" s="2">
         <v>100</v>
@@ -2906,40 +3209,40 @@
         <v>101</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E36" s="2">
         <v>10</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="G36" s="2">
         <v>34420</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="L36" s="2">
         <v>1752</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="N36" s="2">
         <v>101</v>
@@ -2950,10 +3253,10 @@
         <v>102</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D37" s="2">
         <v>840</v>
@@ -2962,28 +3265,28 @@
         <v>10</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="G37" s="2">
         <v>8400</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="L37" s="2">
         <v>1752</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="N37" s="2">
         <v>102</v>
@@ -3004,16 +3307,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3021,16 +3324,16 @@
         <v>125</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3038,16 +3341,16 @@
         <v>126</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3055,16 +3358,16 @@
         <v>127</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -3082,22 +3385,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3105,22 +3408,22 @@
         <v>137</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E2" s="2">
         <v>2020088</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3128,22 +3431,22 @@
         <v>138</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E3" s="2">
         <v>2747491</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3151,22 +3454,22 @@
         <v>139</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E4" s="2">
         <v>460745</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3174,22 +3477,22 @@
         <v>141</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E5" s="2">
         <v>1213710</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -3197,22 +3500,22 @@
         <v>142</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E6" s="2">
         <v>15436</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳碧涵_2012-04-25_財產申報表_tmpd4df1.xlsx
+++ b/legislator/property/output/normal/陳碧涵_2012-04-25_財產申報表_tmpd4df1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="121">
   <si>
     <t>name</t>
   </si>
@@ -63,7 +63,10 @@
     <t>index</t>
   </si>
   <si>
-    <t>臺中市北屯區東峰段00580000地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>桃園縣桃園市雙龍段03790000地號</t>
@@ -102,9 +105,6 @@
     <t>新北市永和區民治段02590000地號</t>
   </si>
   <si>
-    <t>100000分之920</t>
-  </si>
-  <si>
     <t>4分之1</t>
   </si>
   <si>
@@ -120,70 +120,61 @@
     <t>廖賢哲</t>
   </si>
   <si>
+    <t>95年04月06日</t>
+  </si>
+  <si>
+    <t>95年04月06H</t>
+  </si>
+  <si>
+    <t>95年04月06U</t>
+  </si>
+  <si>
+    <t>95年03月23日</t>
+  </si>
+  <si>
+    <t>84年06月13闩</t>
+  </si>
+  <si>
+    <t>76年05月29日</t>
+  </si>
+  <si>
+    <t>繼承</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>(超媧石年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-04-25</t>
+  </si>
+  <si>
+    <t>tmpd4df1</t>
+  </si>
+  <si>
+    <t>臺中市北屯區東峰段03952000建號</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
     <t>94年11月14日</t>
   </si>
   <si>
-    <t>95年04月06日</t>
-  </si>
-  <si>
-    <t>95年04月06H</t>
-  </si>
-  <si>
-    <t>95年04月06U</t>
-  </si>
-  <si>
-    <t>95年03月23日</t>
-  </si>
-  <si>
-    <t>84年06月13闩</t>
-  </si>
-  <si>
-    <t>76年05月29日</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>繼承</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>(超媧石年）</t>
-  </si>
-  <si>
-    <t>land</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2012-04-25</t>
-  </si>
-  <si>
-    <t>tmpd4df1</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方</t>
-  </si>
-  <si>
-    <t>權利範圍</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
-    <t>臺中市北屯區東峰段03952000建號</t>
+    <t>貝賣</t>
+  </si>
+  <si>
+    <t>696800(超過五年）</t>
   </si>
   <si>
     <t>桃圜縣中壢市三座屋段三座屋小段00778000建號</t>
@@ -195,28 +186,16 @@
     <t>新北市永和區民治段01633000建號</t>
   </si>
   <si>
-    <t>全部</t>
-  </si>
-  <si>
     <t>84年06月13曰</t>
   </si>
   <si>
-    <t>貝賣</t>
-  </si>
-  <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
+    <t>85275(超過五年）</t>
+  </si>
+  <si>
+    <t>274700(超過五年）</t>
+  </si>
+  <si>
+    <t>147100(超過五年）</t>
   </si>
   <si>
     <t>國瑞Camry</t>
@@ -234,12 +213,6 @@
     <t>currency</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>兆豐金融控股股份有限公司</t>
-  </si>
-  <si>
     <t>和碩聯合科技股份有限公司</t>
   </si>
   <si>
@@ -345,27 +318,18 @@
     <t>stock</t>
   </si>
   <si>
-    <t>保險公司</t>
-  </si>
-  <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
-    <t>要保人</t>
-  </si>
-  <si>
-    <t>備註</t>
-  </si>
-  <si>
     <t>南山人壽</t>
   </si>
   <si>
+    <t>南山金福利21年期養老壽險</t>
+  </si>
+  <si>
+    <t>81.8.24生效已交20年餘額:109294</t>
+  </si>
+  <si>
     <t>台銀人壽股份有限公司</t>
   </si>
   <si>
-    <t>南山金福利21年期養老壽險</t>
-  </si>
-  <si>
     <t>鴻福還本終身壽險</t>
   </si>
   <si>
@@ -375,54 +339,36 @@
     <t>廖◦陽</t>
   </si>
   <si>
-    <t>81.8.24生效已交20年餘額:109294</t>
-  </si>
-  <si>
     <t>88.11.生效108.11止.</t>
   </si>
   <si>
     <t>94.12.25生效20年期.</t>
   </si>
   <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>債務人</t>
-  </si>
-  <si>
-    <t>債權人及地址</t>
-  </si>
-  <si>
-    <t>餘額</t>
-  </si>
-  <si>
-    <t>取得（發生）時間</t>
-  </si>
-  <si>
-    <t>取得（發生）原因</t>
-  </si>
-  <si>
     <t>公教購屋貸款</t>
   </si>
   <si>
+    <t>台灣銀行(水湳分行）臺中市北屯區祟德路</t>
+  </si>
+  <si>
+    <t>94年12月13曰</t>
+  </si>
+  <si>
+    <t>購屋貸款</t>
+  </si>
+  <si>
     <t>房屋抵押貸款</t>
   </si>
   <si>
     <t>信用貸款</t>
   </si>
   <si>
-    <t>台灣銀行(水湳分行）臺中市北屯區祟德路</t>
-  </si>
-  <si>
     <t>第一銀行(進化分行）臺中市北屯區進化北路</t>
   </si>
   <si>
     <t>合作金庫(中興分行）臺中市北屯區公圜路</t>
   </si>
   <si>
-    <t>94年12月13曰</t>
-  </si>
-  <si>
     <t>94年12月13日</t>
   </si>
   <si>
@@ -433,9 +379,6 @@
   </si>
   <si>
     <t>94年10月18闩</t>
-  </si>
-  <si>
-    <t>購屋貸款</t>
   </si>
   <si>
     <t>個人資金調度</t>
@@ -797,13 +740,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -846,19 +789,25 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>27.36</v>
+        <v>1.73</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>31</v>
@@ -867,19 +816,19 @@
         <v>33</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>31</v>
@@ -888,21 +837,27 @@
         <v>1752</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O2" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>15</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0.4325</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>1.73</v>
+        <v>37.65</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>28</v>
@@ -914,19 +869,19 @@
         <v>34</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="I3" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>31</v>
@@ -935,21 +890,27 @@
         <v>1752</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O3" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>16</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>9.4125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>37.65</v>
+        <v>11.24</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>28</v>
@@ -958,22 +919,22 @@
         <v>31</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="I4" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>31</v>
@@ -982,21 +943,27 @@
         <v>1752</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O4" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>17</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>2.81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>11.24</v>
+        <v>47.62</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>28</v>
@@ -1005,22 +972,22 @@
         <v>31</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="I5" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>31</v>
@@ -1029,21 +996,27 @@
         <v>1752</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O5" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>18</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>11.905</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>47.62</v>
+        <v>0.17</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>28</v>
@@ -1052,22 +1025,22 @@
         <v>31</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="I6" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>31</v>
@@ -1076,21 +1049,27 @@
         <v>1752</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O6" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>19</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0.0425</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2">
-        <v>0.17</v>
+        <v>28.12</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>28</v>
@@ -1099,22 +1078,22 @@
         <v>31</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="I7" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>31</v>
@@ -1123,21 +1102,27 @@
         <v>1752</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O7" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>20</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>7.03</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>28.12</v>
+        <v>17.13</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>28</v>
@@ -1146,22 +1131,22 @@
         <v>31</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="I8" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>31</v>
@@ -1170,21 +1155,27 @@
         <v>1752</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O8" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>21</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>4.2825</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2">
-        <v>17.13</v>
+        <v>2.5</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>28</v>
@@ -1193,22 +1184,22 @@
         <v>31</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="I9" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>31</v>
@@ -1217,21 +1208,27 @@
         <v>1752</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O9" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>22</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" s="2">
-        <v>2.5</v>
+        <v>14</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>28</v>
@@ -1240,22 +1237,22 @@
         <v>31</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="I10" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>31</v>
@@ -1264,21 +1261,27 @@
         <v>1752</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O10" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>23</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" s="2">
-        <v>14</v>
+        <v>1.25</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>28</v>
@@ -1287,22 +1290,22 @@
         <v>31</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="I11" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>31</v>
@@ -1311,24 +1314,30 @@
         <v>1752</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O11" s="2">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>24</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>0.3125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C12" s="2">
-        <v>1.25</v>
+        <v>29.84</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>31</v>
@@ -1337,19 +1346,19 @@
         <v>37</v>
       </c>
       <c r="G12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="I12" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>31</v>
@@ -1358,27 +1367,33 @@
         <v>1752</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O12" s="2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>25</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0.0824585635359116</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>2.4605635359116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C13" s="2">
-        <v>29.84</v>
+        <v>23.28</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>38</v>
@@ -1390,13 +1405,13 @@
         <v>42</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>31</v>
@@ -1405,57 +1420,16 @@
         <v>1752</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O13" s="2">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="1">
         <v>26</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="2">
-        <v>23.28</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M14" s="2">
-        <v>1752</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="O14" s="2">
-        <v>26</v>
+      <c r="P13" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>4.656</v>
       </c>
     </row>
   </sheetData>
@@ -1465,7 +1439,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1473,129 +1447,103 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="1">
+        <v>184</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C2" s="2">
-        <v>184</v>
+        <v>59.73</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="2">
+        <v>119.6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="2">
-        <v>59.73</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C4" s="2">
-        <v>119.6</v>
+        <v>62.8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>40</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>34</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="2">
-        <v>62.8</v>
-      </c>
-      <c r="D5" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1605,53 +1553,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="B1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="2:7">
       <c r="B1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1998</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>44</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1998</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1661,7 +1586,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N37"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1675,16 +1600,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -1710,34 +1635,34 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D2" s="2">
-        <v>1020</v>
+        <v>1302</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="G2" s="2">
-        <v>10200</v>
+        <v>13020</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>31</v>
@@ -1746,42 +1671,42 @@
         <v>1752</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N2" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D3" s="2">
-        <v>1302</v>
+        <v>589</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="G3" s="2">
-        <v>13020</v>
+        <v>5890</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>31</v>
@@ -1790,42 +1715,42 @@
         <v>1752</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N3" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D4" s="2">
-        <v>589</v>
+        <v>3630</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="G4" s="2">
-        <v>5890</v>
+        <v>36300</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>31</v>
@@ -1834,42 +1759,42 @@
         <v>1752</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N4" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D5" s="2">
-        <v>3630</v>
+        <v>1000</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="G5" s="2">
-        <v>36300</v>
+        <v>10000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>31</v>
@@ -1878,42 +1803,42 @@
         <v>1752</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N5" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D6" s="2">
-        <v>1000</v>
+        <v>151</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="G6" s="2">
-        <v>10000</v>
+        <v>1510</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>31</v>
@@ -1922,42 +1847,42 @@
         <v>1752</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N6" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D7" s="2">
-        <v>151</v>
+        <v>2244</v>
       </c>
       <c r="E7" s="2">
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="G7" s="2">
-        <v>1510</v>
+        <v>22440</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>31</v>
@@ -1966,42 +1891,42 @@
         <v>1752</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N7" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D8" s="2">
-        <v>2244</v>
+        <v>237</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="G8" s="2">
-        <v>22440</v>
+        <v>2370</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>31</v>
@@ -2010,42 +1935,42 @@
         <v>1752</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N8" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D9" s="2">
-        <v>237</v>
+        <v>1000</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="G9" s="2">
-        <v>2370</v>
+        <v>10000</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>31</v>
@@ -2054,42 +1979,42 @@
         <v>1752</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N9" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D10" s="2">
-        <v>1000</v>
+        <v>15006</v>
       </c>
       <c r="E10" s="2">
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="G10" s="2">
-        <v>10000</v>
+        <v>150060</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>31</v>
@@ -2098,42 +2023,42 @@
         <v>1752</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N10" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D11" s="2">
-        <v>15006</v>
+        <v>169</v>
       </c>
       <c r="E11" s="2">
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="G11" s="2">
-        <v>150060</v>
+        <v>1690</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>31</v>
@@ -2142,42 +2067,42 @@
         <v>1752</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N11" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D12" s="2">
-        <v>169</v>
+        <v>2887</v>
       </c>
       <c r="E12" s="2">
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="G12" s="2">
-        <v>1690</v>
+        <v>28870</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>31</v>
@@ -2186,42 +2111,42 @@
         <v>1752</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N12" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D13" s="2">
-        <v>2887</v>
+        <v>2216</v>
       </c>
       <c r="E13" s="2">
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G13" s="2">
-        <v>28870</v>
+        <v>96</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>31</v>
@@ -2230,42 +2155,42 @@
         <v>1752</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N13" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D14" s="2">
-        <v>2216</v>
+        <v>207</v>
       </c>
       <c r="E14" s="2">
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>106</v>
+        <v>96</v>
+      </c>
+      <c r="G14" s="2">
+        <v>2070</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>31</v>
@@ -2274,42 +2199,42 @@
         <v>1752</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N14" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D15" s="2">
-        <v>207</v>
+        <v>2180</v>
       </c>
       <c r="E15" s="2">
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="G15" s="2">
-        <v>2070</v>
+        <v>21800</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>31</v>
@@ -2318,42 +2243,42 @@
         <v>1752</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N15" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D16" s="2">
-        <v>2180</v>
+        <v>2795</v>
       </c>
       <c r="E16" s="2">
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="G16" s="2">
-        <v>21800</v>
+        <v>27950</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>31</v>
@@ -2362,42 +2287,42 @@
         <v>1752</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N16" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D17" s="2">
-        <v>2795</v>
+        <v>5280</v>
       </c>
       <c r="E17" s="2">
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="G17" s="2">
-        <v>27950</v>
+        <v>52800</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>31</v>
@@ -2406,42 +2331,42 @@
         <v>1752</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N17" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D18" s="2">
-        <v>5280</v>
+        <v>36</v>
       </c>
       <c r="E18" s="2">
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="G18" s="2">
-        <v>52800</v>
+        <v>360</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>31</v>
@@ -2450,42 +2375,42 @@
         <v>1752</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N18" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D19" s="2">
-        <v>36</v>
+        <v>2297</v>
       </c>
       <c r="E19" s="2">
         <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="G19" s="2">
-        <v>360</v>
+        <v>22970</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>31</v>
@@ -2494,42 +2419,42 @@
         <v>1752</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N19" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D20" s="2">
-        <v>2297</v>
+        <v>1289</v>
       </c>
       <c r="E20" s="2">
         <v>10</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="G20" s="2">
-        <v>22970</v>
+        <v>12890</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>31</v>
@@ -2538,42 +2463,42 @@
         <v>1752</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N20" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="1">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D21" s="2">
-        <v>1289</v>
+        <v>122</v>
       </c>
       <c r="E21" s="2">
         <v>10</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="G21" s="2">
-        <v>12890</v>
+        <v>1220</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>31</v>
@@ -2582,42 +2507,42 @@
         <v>1752</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N21" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="1">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D22" s="2">
-        <v>122</v>
+        <v>1413</v>
       </c>
       <c r="E22" s="2">
         <v>10</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="G22" s="2">
-        <v>1220</v>
+        <v>14130</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>31</v>
@@ -2626,42 +2551,42 @@
         <v>1752</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N22" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="1">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D23" s="2">
-        <v>1413</v>
+        <v>1164</v>
       </c>
       <c r="E23" s="2">
         <v>10</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="G23" s="2">
-        <v>14130</v>
+        <v>11640</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>31</v>
@@ -2670,42 +2595,42 @@
         <v>1752</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N23" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="1">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D24" s="2">
-        <v>1164</v>
+        <v>101</v>
       </c>
       <c r="E24" s="2">
         <v>10</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="G24" s="2">
-        <v>11640</v>
+        <v>1010</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>31</v>
@@ -2714,42 +2639,42 @@
         <v>1752</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N24" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="1">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="2">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E25" s="2">
         <v>10</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="G25" s="2">
-        <v>1010</v>
+        <v>0.94</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>31</v>
@@ -2758,42 +2683,42 @@
         <v>1752</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N25" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="1">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D26" s="2">
-        <v>94</v>
+        <v>741482</v>
       </c>
       <c r="E26" s="2">
         <v>10</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="G26" s="2">
-        <v>0.94</v>
+        <v>7414820</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>31</v>
@@ -2802,15 +2727,15 @@
         <v>1752</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N26" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="1">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>81</v>
@@ -2819,25 +2744,25 @@
         <v>32</v>
       </c>
       <c r="D27" s="2">
-        <v>741482</v>
+        <v>36272</v>
       </c>
       <c r="E27" s="2">
         <v>10</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="G27" s="2">
-        <v>7414820</v>
+        <v>362720</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>31</v>
@@ -2846,42 +2771,42 @@
         <v>1752</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N27" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="1">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D28" s="2">
-        <v>36272</v>
+        <v>192</v>
       </c>
       <c r="E28" s="2">
         <v>10</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="G28" s="2">
-        <v>362720</v>
+        <v>1920</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>31</v>
@@ -2890,42 +2815,42 @@
         <v>1752</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N28" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D29" s="2">
-        <v>192</v>
+        <v>122</v>
       </c>
       <c r="E29" s="2">
         <v>10</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="G29" s="2">
-        <v>1920</v>
+        <v>1220</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>31</v>
@@ -2934,42 +2859,42 @@
         <v>1752</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N29" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D30" s="2">
-        <v>122</v>
+        <v>3300</v>
       </c>
       <c r="E30" s="2">
         <v>10</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="G30" s="2">
-        <v>1220</v>
+        <v>33000</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>31</v>
@@ -2978,42 +2903,42 @@
         <v>1752</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N30" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D31" s="2">
-        <v>3300</v>
+        <v>1212</v>
       </c>
       <c r="E31" s="2">
         <v>10</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="G31" s="2">
-        <v>33000</v>
+        <v>12120</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>31</v>
@@ -3022,42 +2947,42 @@
         <v>1752</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N31" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D32" s="2">
-        <v>1212</v>
+        <v>90</v>
       </c>
       <c r="E32" s="2">
         <v>10</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="G32" s="2">
-        <v>12120</v>
+        <v>900</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K32" s="2" t="s">
         <v>31</v>
@@ -3066,42 +2991,42 @@
         <v>1752</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N32" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="1">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="D33" s="2">
-        <v>90</v>
+        <v>2180</v>
       </c>
       <c r="E33" s="2">
         <v>10</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="G33" s="2">
-        <v>900</v>
+        <v>21800</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K33" s="2" t="s">
         <v>31</v>
@@ -3110,130 +3035,130 @@
         <v>1752</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N33" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="1">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D34" s="2">
+        <v>2252</v>
+      </c>
+      <c r="E34" s="2">
+        <v>10</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G34" s="2">
+        <v>22520</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L34" s="2">
+        <v>1752</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N34" s="2">
         <v>100</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D34" s="2">
-        <v>2180</v>
-      </c>
-      <c r="E34" s="2">
-        <v>10</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G34" s="2">
-        <v>21800</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L34" s="2">
-        <v>1752</v>
-      </c>
-      <c r="M34" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N34" s="2">
-        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E35" s="2">
+        <v>10</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G35" s="2">
+        <v>34420</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L35" s="2">
+        <v>1752</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N35" s="2">
         <v>101</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D35" s="2">
-        <v>2252</v>
-      </c>
-      <c r="E35" s="2">
-        <v>10</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G35" s="2">
-        <v>22520</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L35" s="2">
-        <v>1752</v>
-      </c>
-      <c r="M35" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N35" s="2">
-        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>104</v>
+        <v>31</v>
+      </c>
+      <c r="D36" s="2">
+        <v>840</v>
       </c>
       <c r="E36" s="2">
         <v>10</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="G36" s="2">
-        <v>34420</v>
+        <v>8400</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K36" s="2" t="s">
         <v>31</v>
@@ -3242,53 +3167,9 @@
         <v>1752</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N36" s="2">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14">
-      <c r="A37" s="1">
-        <v>102</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D37" s="2">
-        <v>840</v>
-      </c>
-      <c r="E37" s="2">
-        <v>10</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G37" s="2">
-        <v>8400</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L37" s="2">
-        <v>1752</v>
-      </c>
-      <c r="M37" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N37" s="2">
         <v>102</v>
       </c>
     </row>
@@ -3299,7 +3180,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3307,67 +3188,50 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>110</v>
+        <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>31</v>
+        <v>105</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1">
-        <v>127</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -3377,7 +3241,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3385,137 +3249,114 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>122</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>124</v>
+        <v>109</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2020088</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="E2" s="2">
-        <v>2020088</v>
+        <v>2747491</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="E3" s="2">
-        <v>2747491</v>
+        <v>460745</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="E4" s="2">
-        <v>460745</v>
+        <v>1213710</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="E5" s="2">
-        <v>1213710</v>
+        <v>15436</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
-        <v>142</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E6" s="2">
-        <v>15436</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳碧涵_2012-04-25_財產申報表_tmpd4df1.xlsx
+++ b/legislator/property/output/normal/陳碧涵_2012-04-25_財產申報表_tmpd4df1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="124">
   <si>
     <t>name</t>
   </si>
@@ -69,6 +69,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>臺中市北屯區東峰段00580000地號</t>
+  </si>
+  <si>
     <t>桃園縣桃園市雙龍段03790000地號</t>
   </si>
   <si>
@@ -105,6 +108,9 @@
     <t>新北市永和區民治段02590000地號</t>
   </si>
   <si>
+    <t>100000分之920</t>
+  </si>
+  <si>
     <t>4分之1</t>
   </si>
   <si>
@@ -120,6 +126,9 @@
     <t>廖賢哲</t>
   </si>
   <si>
+    <t>94年11月14日</t>
+  </si>
+  <si>
     <t>95年04月06日</t>
   </si>
   <si>
@@ -138,12 +147,12 @@
     <t>76年05月29日</t>
   </si>
   <si>
+    <t>買賣</t>
+  </si>
+  <si>
     <t>繼承</t>
   </si>
   <si>
-    <t>買賣</t>
-  </si>
-  <si>
     <t>(超過五年）</t>
   </si>
   <si>
@@ -165,10 +174,19 @@
     <t>臺中市北屯區東峰段03952000建號</t>
   </si>
   <si>
+    <t>桃圜縣中壢市三座屋段三座屋小段00778000建號</t>
+  </si>
+  <si>
+    <t>桃圜縣中壢市後寮段段08813000建號</t>
+  </si>
+  <si>
+    <t>新北市永和區民治段01633000建號</t>
+  </si>
+  <si>
     <t>全部</t>
   </si>
   <si>
-    <t>94年11月14日</t>
+    <t>84年06月13曰</t>
   </si>
   <si>
     <t>貝賣</t>
@@ -177,18 +195,6 @@
     <t>696800(超過五年）</t>
   </si>
   <si>
-    <t>桃圜縣中壢市三座屋段三座屋小段00778000建號</t>
-  </si>
-  <si>
-    <t>桃圜縣中壢市後寮段段08813000建號</t>
-  </si>
-  <si>
-    <t>新北市永和區民治段01633000建號</t>
-  </si>
-  <si>
-    <t>84年06月13曰</t>
-  </si>
-  <si>
     <t>85275(超過五年）</t>
   </si>
   <si>
@@ -211,6 +217,9 @@
   </si>
   <si>
     <t>currency</t>
+  </si>
+  <si>
+    <t>兆豐金融控股股份有限公司</t>
   </si>
   <si>
     <t>和碩聯合科技股份有限公司</t>
@@ -740,7 +749,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -798,637 +807,690 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>1.73</v>
+        <v>27.36</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M2" s="2">
         <v>1752</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="O2" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P2" s="2">
-        <v>0.25</v>
+        <v>0.0092</v>
       </c>
       <c r="Q2" s="2">
-        <v>0.4325</v>
+        <v>0.251712</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>37.65</v>
+        <v>1.73</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M3" s="2">
         <v>1752</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="O3" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P3" s="2">
         <v>0.25</v>
       </c>
       <c r="Q3" s="2">
-        <v>9.4125</v>
+        <v>0.4325</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>11.24</v>
+        <v>37.65</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M4" s="2">
         <v>1752</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="O4" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P4" s="2">
         <v>0.25</v>
       </c>
       <c r="Q4" s="2">
-        <v>2.81</v>
+        <v>9.4125</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>47.62</v>
+        <v>11.24</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M5" s="2">
         <v>1752</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="O5" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P5" s="2">
         <v>0.25</v>
       </c>
       <c r="Q5" s="2">
-        <v>11.905</v>
+        <v>2.81</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>0.17</v>
+        <v>47.62</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M6" s="2">
         <v>1752</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="O6" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P6" s="2">
         <v>0.25</v>
       </c>
       <c r="Q6" s="2">
-        <v>0.0425</v>
+        <v>11.905</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="2">
-        <v>28.12</v>
+        <v>0.17</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M7" s="2">
         <v>1752</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="O7" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P7" s="2">
         <v>0.25</v>
       </c>
       <c r="Q7" s="2">
-        <v>7.03</v>
+        <v>0.0425</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>17.13</v>
+        <v>28.12</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M8" s="2">
         <v>1752</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="O8" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P8" s="2">
         <v>0.25</v>
       </c>
       <c r="Q8" s="2">
-        <v>4.2825</v>
+        <v>7.03</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="2">
-        <v>2.5</v>
+        <v>17.13</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M9" s="2">
         <v>1752</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="O9" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P9" s="2">
         <v>0.25</v>
       </c>
       <c r="Q9" s="2">
-        <v>0.625</v>
+        <v>4.2825</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="2">
-        <v>14</v>
+        <v>2.5</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M10" s="2">
         <v>1752</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="O10" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P10" s="2">
         <v>0.25</v>
       </c>
       <c r="Q10" s="2">
-        <v>3.5</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="2">
-        <v>1.25</v>
+        <v>14</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M11" s="2">
         <v>1752</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="O11" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P11" s="2">
         <v>0.25</v>
       </c>
       <c r="Q11" s="2">
-        <v>0.3125</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="2">
-        <v>29.84</v>
+        <v>1.25</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M12" s="2">
         <v>1752</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="O12" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P12" s="2">
-        <v>0.0824585635359116</v>
+        <v>0.25</v>
       </c>
       <c r="Q12" s="2">
-        <v>2.4605635359116</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="2">
+        <v>29.84</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M13" s="2">
+        <v>1752</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O13" s="2">
+        <v>25</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0.0824585635359116</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>2.4605635359116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="1">
+        <v>26</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="2">
         <v>23.28</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H13" s="2" t="s">
+      <c r="E14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I13" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K13" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="L13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M13" s="2">
-        <v>1752</v>
-      </c>
-      <c r="N13" s="2" t="s">
+      <c r="I14" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="O13" s="2">
+      <c r="J14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1752</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O14" s="2">
         <v>26</v>
       </c>
-      <c r="P13" s="2">
+      <c r="P14" s="2">
         <v>0.2</v>
       </c>
-      <c r="Q13" s="2">
+      <c r="Q14" s="2">
         <v>4.656</v>
       </c>
     </row>
@@ -1439,111 +1501,272 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="2">
         <v>184</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="D2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1752</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O2" s="2">
         <v>31</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>32</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
+      <c r="C3" s="2">
+        <v>59.73</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1752</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O3" s="2">
         <v>32</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="P3" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>14.9325</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1">
+        <v>33</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="2">
-        <v>59.73</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>33</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="C4" s="2">
+        <v>119.6</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1752</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O4" s="2">
+        <v>33</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>119.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1">
+        <v>34</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="2">
-        <v>119.6</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
+      <c r="C5" s="2">
+        <v>62.8</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="F5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1752</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O5" s="2">
+        <v>34</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2">
         <v>62.8</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1553,30 +1776,53 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1">
         <v>1998</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>44</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1998</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1586,7 +1832,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N36"/>
+  <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1600,13 +1846,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1635,1541 +1881,1585 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
+        <v>65</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D2" s="2">
-        <v>1302</v>
+        <v>1020</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G2" s="2">
-        <v>13020</v>
+        <v>10200</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L2" s="2">
         <v>1752</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N2" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
+        <v>66</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D3" s="2">
-        <v>589</v>
+        <v>1302</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G3" s="2">
-        <v>5890</v>
+        <v>13020</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L3" s="2">
         <v>1752</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N3" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
+        <v>67</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D4" s="2">
-        <v>3630</v>
+        <v>589</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G4" s="2">
-        <v>36300</v>
+        <v>5890</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L4" s="2">
         <v>1752</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N4" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
+        <v>68</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D5" s="2">
-        <v>1000</v>
+        <v>3630</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G5" s="2">
-        <v>10000</v>
+        <v>36300</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L5" s="2">
         <v>1752</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N5" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D6" s="2">
-        <v>151</v>
+        <v>1000</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G6" s="2">
-        <v>1510</v>
+        <v>10000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L6" s="2">
         <v>1752</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N6" s="2">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D7" s="2">
-        <v>2244</v>
+        <v>151</v>
       </c>
       <c r="E7" s="2">
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G7" s="2">
-        <v>22440</v>
+        <v>1510</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L7" s="2">
         <v>1752</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N7" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D8" s="2">
-        <v>237</v>
+        <v>2244</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G8" s="2">
-        <v>2370</v>
+        <v>22440</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L8" s="2">
         <v>1752</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N8" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D9" s="2">
-        <v>1000</v>
+        <v>237</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G9" s="2">
-        <v>10000</v>
+        <v>2370</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L9" s="2">
         <v>1752</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N9" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D10" s="2">
-        <v>15006</v>
+        <v>1000</v>
       </c>
       <c r="E10" s="2">
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G10" s="2">
-        <v>150060</v>
+        <v>10000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L10" s="2">
         <v>1752</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N10" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D11" s="2">
-        <v>169</v>
+        <v>15006</v>
       </c>
       <c r="E11" s="2">
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G11" s="2">
-        <v>1690</v>
+        <v>150060</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L11" s="2">
         <v>1752</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N11" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D12" s="2">
-        <v>2887</v>
+        <v>169</v>
       </c>
       <c r="E12" s="2">
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G12" s="2">
-        <v>28870</v>
+        <v>1690</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L12" s="2">
         <v>1752</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N12" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D13" s="2">
-        <v>2216</v>
+        <v>2887</v>
       </c>
       <c r="E13" s="2">
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
+      </c>
+      <c r="G13" s="2">
+        <v>28870</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L13" s="2">
         <v>1752</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N13" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D14" s="2">
-        <v>207</v>
+        <v>2216</v>
       </c>
       <c r="E14" s="2">
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G14" s="2">
-        <v>2070</v>
+        <v>99</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L14" s="2">
         <v>1752</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N14" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D15" s="2">
-        <v>2180</v>
+        <v>207</v>
       </c>
       <c r="E15" s="2">
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G15" s="2">
-        <v>21800</v>
+        <v>2070</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L15" s="2">
         <v>1752</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N15" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D16" s="2">
-        <v>2795</v>
+        <v>2180</v>
       </c>
       <c r="E16" s="2">
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G16" s="2">
-        <v>27950</v>
+        <v>21800</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L16" s="2">
         <v>1752</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N16" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D17" s="2">
-        <v>5280</v>
+        <v>2795</v>
       </c>
       <c r="E17" s="2">
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G17" s="2">
-        <v>52800</v>
+        <v>27950</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L17" s="2">
         <v>1752</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N17" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="1">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D18" s="2">
-        <v>36</v>
+        <v>5280</v>
       </c>
       <c r="E18" s="2">
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G18" s="2">
-        <v>360</v>
+        <v>52800</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L18" s="2">
         <v>1752</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N18" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="1">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D19" s="2">
-        <v>2297</v>
+        <v>36</v>
       </c>
       <c r="E19" s="2">
         <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G19" s="2">
-        <v>22970</v>
+        <v>360</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L19" s="2">
         <v>1752</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N19" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="1">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D20" s="2">
-        <v>1289</v>
+        <v>2297</v>
       </c>
       <c r="E20" s="2">
         <v>10</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G20" s="2">
-        <v>12890</v>
+        <v>22970</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L20" s="2">
         <v>1752</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N20" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="1">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D21" s="2">
-        <v>122</v>
+        <v>1289</v>
       </c>
       <c r="E21" s="2">
         <v>10</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G21" s="2">
-        <v>1220</v>
+        <v>12890</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L21" s="2">
         <v>1752</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N21" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="1">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D22" s="2">
-        <v>1413</v>
+        <v>122</v>
       </c>
       <c r="E22" s="2">
         <v>10</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G22" s="2">
-        <v>14130</v>
+        <v>1220</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L22" s="2">
         <v>1752</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N22" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="1">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D23" s="2">
-        <v>1164</v>
+        <v>1413</v>
       </c>
       <c r="E23" s="2">
         <v>10</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G23" s="2">
-        <v>11640</v>
+        <v>14130</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L23" s="2">
         <v>1752</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N23" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="1">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D24" s="2">
-        <v>101</v>
+        <v>1164</v>
       </c>
       <c r="E24" s="2">
         <v>10</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G24" s="2">
-        <v>1010</v>
+        <v>11640</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L24" s="2">
         <v>1752</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N24" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="1">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D25" s="2">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="E25" s="2">
         <v>10</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G25" s="2">
-        <v>0.94</v>
+        <v>1010</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L25" s="2">
         <v>1752</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N25" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="1">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D26" s="2">
-        <v>741482</v>
+        <v>94</v>
       </c>
       <c r="E26" s="2">
         <v>10</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G26" s="2">
-        <v>7414820</v>
+        <v>0.94</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L26" s="2">
         <v>1752</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N26" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="1">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D27" s="2">
-        <v>36272</v>
+        <v>741482</v>
       </c>
       <c r="E27" s="2">
         <v>10</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G27" s="2">
-        <v>362720</v>
+        <v>7414820</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L27" s="2">
         <v>1752</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N27" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="1">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D28" s="2">
-        <v>192</v>
+        <v>36272</v>
       </c>
       <c r="E28" s="2">
         <v>10</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G28" s="2">
-        <v>1920</v>
+        <v>362720</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L28" s="2">
         <v>1752</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N28" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="1">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D29" s="2">
-        <v>122</v>
+        <v>192</v>
       </c>
       <c r="E29" s="2">
         <v>10</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G29" s="2">
-        <v>1220</v>
+        <v>1920</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L29" s="2">
         <v>1752</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N29" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="1">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D30" s="2">
-        <v>3300</v>
+        <v>122</v>
       </c>
       <c r="E30" s="2">
         <v>10</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G30" s="2">
-        <v>33000</v>
+        <v>1220</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L30" s="2">
         <v>1752</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N30" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="1">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D31" s="2">
-        <v>1212</v>
+        <v>3300</v>
       </c>
       <c r="E31" s="2">
         <v>10</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G31" s="2">
-        <v>12120</v>
+        <v>33000</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L31" s="2">
         <v>1752</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N31" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="1">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D32" s="2">
-        <v>90</v>
+        <v>1212</v>
       </c>
       <c r="E32" s="2">
         <v>10</v>
       </c>
       <c r="F32" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G32" s="2">
+        <v>12120</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L32" s="2">
+        <v>1752</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N32" s="2">
         <v>96</v>
-      </c>
-      <c r="G32" s="2">
-        <v>900</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L32" s="2">
-        <v>1752</v>
-      </c>
-      <c r="M32" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="N32" s="2">
-        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="1">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="D33" s="2">
-        <v>2180</v>
+        <v>90</v>
       </c>
       <c r="E33" s="2">
         <v>10</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G33" s="2">
-        <v>21800</v>
+        <v>900</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L33" s="2">
         <v>1752</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N33" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="1">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D34" s="2">
-        <v>2252</v>
+        <v>2180</v>
       </c>
       <c r="E34" s="2">
         <v>10</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G34" s="2">
-        <v>22520</v>
+        <v>21800</v>
       </c>
       <c r="H34" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L34" s="2">
+        <v>1752</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N34" s="2">
         <v>98</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L34" s="2">
-        <v>1752</v>
-      </c>
-      <c r="M34" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="N34" s="2">
-        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="1">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
+      </c>
+      <c r="D35" s="2">
+        <v>2252</v>
       </c>
       <c r="E35" s="2">
         <v>10</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G35" s="2">
-        <v>34420</v>
+        <v>22520</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L35" s="2">
         <v>1752</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N35" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="1">
+        <v>101</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E36" s="2">
+        <v>10</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G36" s="2">
+        <v>34420</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L36" s="2">
+        <v>1752</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N36" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="1">
         <v>102</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D36" s="2">
+      <c r="B37" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37" s="2">
         <v>840</v>
       </c>
-      <c r="E36" s="2">
-        <v>10</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G36" s="2">
+      <c r="E37" s="2">
+        <v>10</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G37" s="2">
         <v>8400</v>
       </c>
-      <c r="H36" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L36" s="2">
-        <v>1752</v>
-      </c>
-      <c r="M36" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="N36" s="2">
+      <c r="H37" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L37" s="2">
+        <v>1752</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N37" s="2">
         <v>102</v>
       </c>
     </row>
@@ -3180,7 +3470,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3188,21 +3478,21 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>102</v>
@@ -3211,27 +3501,44 @@
         <v>103</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
+        <v>126</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
         <v>127</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="B4" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>107</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -3241,7 +3548,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3249,114 +3556,137 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E1" s="1">
         <v>2020088</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="E2" s="2">
-        <v>2747491</v>
+        <v>2020088</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="E3" s="2">
-        <v>460745</v>
+        <v>2747491</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E4" s="2">
-        <v>1213710</v>
+        <v>460745</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
+        <v>141</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1213710</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
         <v>142</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="B6" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E6" s="2">
         <v>15436</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>120</v>
+      <c r="F6" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳碧涵_2012-04-25_財產申報表_tmpd4df1.xlsx
+++ b/legislator/property/output/normal/陳碧涵_2012-04-25_財產申報表_tmpd4df1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="125">
   <si>
     <t>name</t>
   </si>
@@ -202,6 +202,9 @@
   </si>
   <si>
     <t>147100(超過五年）</t>
+  </si>
+  <si>
+    <t>capacity</t>
   </si>
   <si>
     <t>國瑞Camry</t>
@@ -1776,38 +1779,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="1">
-        <v>1998</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C2" s="2">
         <v>1998</v>
@@ -1816,12 +1840,33 @@
         <v>33</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1752</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N2" s="2">
         <v>44</v>
       </c>
     </row>
@@ -1846,13 +1891,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1884,7 +1929,7 @@
         <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>33</v>
@@ -1896,13 +1941,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G2" s="2">
         <v>10200</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>47</v>
@@ -1928,7 +1973,7 @@
         <v>66</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>33</v>
@@ -1940,13 +1985,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G3" s="2">
         <v>13020</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>47</v>
@@ -1972,7 +2017,7 @@
         <v>67</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>33</v>
@@ -1984,13 +2029,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G4" s="2">
         <v>5890</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>47</v>
@@ -2016,7 +2061,7 @@
         <v>68</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>33</v>
@@ -2028,13 +2073,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G5" s="2">
         <v>36300</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>47</v>
@@ -2060,7 +2105,7 @@
         <v>69</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>33</v>
@@ -2072,13 +2117,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G6" s="2">
         <v>10000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>47</v>
@@ -2104,7 +2149,7 @@
         <v>71</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>33</v>
@@ -2116,13 +2161,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G7" s="2">
         <v>1510</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>47</v>
@@ -2148,7 +2193,7 @@
         <v>72</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>33</v>
@@ -2160,13 +2205,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G8" s="2">
         <v>22440</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>47</v>
@@ -2192,7 +2237,7 @@
         <v>73</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>33</v>
@@ -2204,13 +2249,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G9" s="2">
         <v>2370</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>47</v>
@@ -2236,7 +2281,7 @@
         <v>74</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>33</v>
@@ -2248,13 +2293,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G10" s="2">
         <v>10000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>47</v>
@@ -2280,7 +2325,7 @@
         <v>75</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>33</v>
@@ -2292,13 +2337,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G11" s="2">
         <v>150060</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>47</v>
@@ -2324,7 +2369,7 @@
         <v>76</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>33</v>
@@ -2336,13 +2381,13 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G12" s="2">
         <v>1690</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>47</v>
@@ -2368,7 +2413,7 @@
         <v>77</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>33</v>
@@ -2380,13 +2425,13 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G13" s="2">
         <v>28870</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>47</v>
@@ -2412,7 +2457,7 @@
         <v>78</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>33</v>
@@ -2424,13 +2469,13 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>47</v>
@@ -2456,7 +2501,7 @@
         <v>79</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>33</v>
@@ -2468,13 +2513,13 @@
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G15" s="2">
         <v>2070</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>47</v>
@@ -2500,7 +2545,7 @@
         <v>80</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>33</v>
@@ -2512,13 +2557,13 @@
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G16" s="2">
         <v>21800</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>47</v>
@@ -2544,7 +2589,7 @@
         <v>81</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>33</v>
@@ -2556,13 +2601,13 @@
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G17" s="2">
         <v>27950</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>47</v>
@@ -2588,7 +2633,7 @@
         <v>82</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>33</v>
@@ -2600,13 +2645,13 @@
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G18" s="2">
         <v>52800</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>47</v>
@@ -2632,7 +2677,7 @@
         <v>83</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>33</v>
@@ -2644,13 +2689,13 @@
         <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G19" s="2">
         <v>360</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>47</v>
@@ -2676,7 +2721,7 @@
         <v>84</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>33</v>
@@ -2688,13 +2733,13 @@
         <v>10</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G20" s="2">
         <v>22970</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>47</v>
@@ -2720,7 +2765,7 @@
         <v>85</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>33</v>
@@ -2732,13 +2777,13 @@
         <v>10</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G21" s="2">
         <v>12890</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>47</v>
@@ -2764,7 +2809,7 @@
         <v>86</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>33</v>
@@ -2776,13 +2821,13 @@
         <v>10</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G22" s="2">
         <v>1220</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>47</v>
@@ -2808,7 +2853,7 @@
         <v>87</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>33</v>
@@ -2820,13 +2865,13 @@
         <v>10</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G23" s="2">
         <v>14130</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>47</v>
@@ -2852,7 +2897,7 @@
         <v>88</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>33</v>
@@ -2864,13 +2909,13 @@
         <v>10</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G24" s="2">
         <v>11640</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>47</v>
@@ -2896,7 +2941,7 @@
         <v>89</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>34</v>
@@ -2908,13 +2953,13 @@
         <v>10</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G25" s="2">
         <v>1010</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>47</v>
@@ -2940,7 +2985,7 @@
         <v>90</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>34</v>
@@ -2952,13 +2997,13 @@
         <v>10</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G26" s="2">
         <v>0.94</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>47</v>
@@ -2984,7 +3029,7 @@
         <v>91</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>34</v>
@@ -2996,13 +3041,13 @@
         <v>10</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G27" s="2">
         <v>7414820</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>47</v>
@@ -3028,7 +3073,7 @@
         <v>92</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>34</v>
@@ -3040,13 +3085,13 @@
         <v>10</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G28" s="2">
         <v>362720</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>47</v>
@@ -3072,7 +3117,7 @@
         <v>93</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>34</v>
@@ -3084,13 +3129,13 @@
         <v>10</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G29" s="2">
         <v>1920</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>47</v>
@@ -3116,7 +3161,7 @@
         <v>94</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>34</v>
@@ -3128,13 +3173,13 @@
         <v>10</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G30" s="2">
         <v>1220</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>47</v>
@@ -3160,7 +3205,7 @@
         <v>95</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>34</v>
@@ -3172,13 +3217,13 @@
         <v>10</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G31" s="2">
         <v>33000</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>47</v>
@@ -3204,7 +3249,7 @@
         <v>96</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>33</v>
@@ -3216,13 +3261,13 @@
         <v>10</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G32" s="2">
         <v>12120</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>47</v>
@@ -3248,7 +3293,7 @@
         <v>97</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>34</v>
@@ -3260,13 +3305,13 @@
         <v>10</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G33" s="2">
         <v>900</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>47</v>
@@ -3292,10 +3337,10 @@
         <v>98</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D34" s="2">
         <v>2180</v>
@@ -3304,13 +3349,13 @@
         <v>10</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G34" s="2">
         <v>21800</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>47</v>
@@ -3336,10 +3381,10 @@
         <v>100</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D35" s="2">
         <v>2252</v>
@@ -3348,13 +3393,13 @@
         <v>10</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G35" s="2">
         <v>22520</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>47</v>
@@ -3380,25 +3425,25 @@
         <v>101</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E36" s="2">
         <v>10</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G36" s="2">
         <v>34420</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>47</v>
@@ -3424,7 +3469,7 @@
         <v>102</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>33</v>
@@ -3436,13 +3481,13 @@
         <v>10</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G37" s="2">
         <v>8400</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>47</v>
@@ -3478,16 +3523,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3495,16 +3540,16 @@
         <v>125</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3512,16 +3557,16 @@
         <v>126</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3529,16 +3574,16 @@
         <v>127</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -3556,22 +3601,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E1" s="1">
         <v>2020088</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3579,22 +3624,22 @@
         <v>137</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E2" s="2">
         <v>2020088</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3602,22 +3647,22 @@
         <v>138</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E3" s="2">
         <v>2747491</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3625,22 +3670,22 @@
         <v>139</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E4" s="2">
         <v>460745</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3648,22 +3693,22 @@
         <v>141</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E5" s="2">
         <v>1213710</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -3671,22 +3716,22 @@
         <v>142</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E6" s="2">
         <v>15436</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳碧涵_2012-04-25_財產申報表_tmpd4df1.xlsx
+++ b/legislator/property/output/normal/陳碧涵_2012-04-25_財產申報表_tmpd4df1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="127">
   <si>
     <t>name</t>
   </si>
@@ -204,6 +204,9 @@
     <t>147100(超過五年）</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -211,6 +214,9 @@
   </si>
   <si>
     <t>96年01月12日</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>quantity</t>
@@ -1586,7 +1592,7 @@
         <v>57</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>47</v>
@@ -1639,7 +1645,7 @@
         <v>58</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>47</v>
@@ -1692,7 +1698,7 @@
         <v>59</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>47</v>
@@ -1745,7 +1751,7 @@
         <v>60</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>47</v>
@@ -1790,7 +1796,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1831,7 +1837,7 @@
         <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2">
         <v>1998</v>
@@ -1840,7 +1846,7 @@
         <v>33</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>42</v>
@@ -1849,7 +1855,7 @@
         <v>44</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>47</v>
@@ -1891,13 +1897,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1929,7 +1935,7 @@
         <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>33</v>
@@ -1941,13 +1947,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G2" s="2">
         <v>10200</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>47</v>
@@ -1973,7 +1979,7 @@
         <v>66</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>33</v>
@@ -1985,13 +1991,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G3" s="2">
         <v>13020</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>47</v>
@@ -2017,7 +2023,7 @@
         <v>67</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>33</v>
@@ -2029,13 +2035,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G4" s="2">
         <v>5890</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>47</v>
@@ -2061,7 +2067,7 @@
         <v>68</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>33</v>
@@ -2073,13 +2079,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G5" s="2">
         <v>36300</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>47</v>
@@ -2105,7 +2111,7 @@
         <v>69</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>33</v>
@@ -2117,13 +2123,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G6" s="2">
         <v>10000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>47</v>
@@ -2149,7 +2155,7 @@
         <v>71</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>33</v>
@@ -2161,13 +2167,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G7" s="2">
         <v>1510</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>47</v>
@@ -2193,7 +2199,7 @@
         <v>72</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>33</v>
@@ -2205,13 +2211,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G8" s="2">
         <v>22440</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>47</v>
@@ -2237,7 +2243,7 @@
         <v>73</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>33</v>
@@ -2249,13 +2255,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G9" s="2">
         <v>2370</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>47</v>
@@ -2281,7 +2287,7 @@
         <v>74</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>33</v>
@@ -2293,13 +2299,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G10" s="2">
         <v>10000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>47</v>
@@ -2325,7 +2331,7 @@
         <v>75</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>33</v>
@@ -2337,13 +2343,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G11" s="2">
         <v>150060</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>47</v>
@@ -2369,7 +2375,7 @@
         <v>76</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>33</v>
@@ -2381,13 +2387,13 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G12" s="2">
         <v>1690</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>47</v>
@@ -2413,7 +2419,7 @@
         <v>77</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>33</v>
@@ -2425,13 +2431,13 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G13" s="2">
         <v>28870</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>47</v>
@@ -2457,7 +2463,7 @@
         <v>78</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>33</v>
@@ -2469,13 +2475,13 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>47</v>
@@ -2501,7 +2507,7 @@
         <v>79</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>33</v>
@@ -2513,13 +2519,13 @@
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G15" s="2">
         <v>2070</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>47</v>
@@ -2545,7 +2551,7 @@
         <v>80</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>33</v>
@@ -2557,13 +2563,13 @@
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G16" s="2">
         <v>21800</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>47</v>
@@ -2589,7 +2595,7 @@
         <v>81</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>33</v>
@@ -2601,13 +2607,13 @@
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G17" s="2">
         <v>27950</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>47</v>
@@ -2633,7 +2639,7 @@
         <v>82</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>33</v>
@@ -2645,13 +2651,13 @@
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G18" s="2">
         <v>52800</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>47</v>
@@ -2677,7 +2683,7 @@
         <v>83</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>33</v>
@@ -2689,13 +2695,13 @@
         <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G19" s="2">
         <v>360</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>47</v>
@@ -2721,7 +2727,7 @@
         <v>84</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>33</v>
@@ -2733,13 +2739,13 @@
         <v>10</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G20" s="2">
         <v>22970</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>47</v>
@@ -2765,7 +2771,7 @@
         <v>85</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>33</v>
@@ -2777,13 +2783,13 @@
         <v>10</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G21" s="2">
         <v>12890</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>47</v>
@@ -2809,7 +2815,7 @@
         <v>86</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>33</v>
@@ -2821,13 +2827,13 @@
         <v>10</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G22" s="2">
         <v>1220</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>47</v>
@@ -2853,7 +2859,7 @@
         <v>87</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>33</v>
@@ -2865,13 +2871,13 @@
         <v>10</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G23" s="2">
         <v>14130</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>47</v>
@@ -2897,7 +2903,7 @@
         <v>88</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>33</v>
@@ -2909,13 +2915,13 @@
         <v>10</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G24" s="2">
         <v>11640</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>47</v>
@@ -2941,7 +2947,7 @@
         <v>89</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>34</v>
@@ -2953,13 +2959,13 @@
         <v>10</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G25" s="2">
         <v>1010</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>47</v>
@@ -2985,7 +2991,7 @@
         <v>90</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>34</v>
@@ -2997,13 +3003,13 @@
         <v>10</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G26" s="2">
         <v>0.94</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>47</v>
@@ -3029,7 +3035,7 @@
         <v>91</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>34</v>
@@ -3041,13 +3047,13 @@
         <v>10</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G27" s="2">
         <v>7414820</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>47</v>
@@ -3073,7 +3079,7 @@
         <v>92</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>34</v>
@@ -3085,13 +3091,13 @@
         <v>10</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G28" s="2">
         <v>362720</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>47</v>
@@ -3117,7 +3123,7 @@
         <v>93</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>34</v>
@@ -3129,13 +3135,13 @@
         <v>10</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G29" s="2">
         <v>1920</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>47</v>
@@ -3161,7 +3167,7 @@
         <v>94</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>34</v>
@@ -3173,13 +3179,13 @@
         <v>10</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G30" s="2">
         <v>1220</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>47</v>
@@ -3205,7 +3211,7 @@
         <v>95</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>34</v>
@@ -3217,13 +3223,13 @@
         <v>10</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G31" s="2">
         <v>33000</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>47</v>
@@ -3249,7 +3255,7 @@
         <v>96</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>33</v>
@@ -3261,13 +3267,13 @@
         <v>10</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G32" s="2">
         <v>12120</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>47</v>
@@ -3293,7 +3299,7 @@
         <v>97</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>34</v>
@@ -3305,13 +3311,13 @@
         <v>10</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G33" s="2">
         <v>900</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>47</v>
@@ -3337,10 +3343,10 @@
         <v>98</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D34" s="2">
         <v>2180</v>
@@ -3349,13 +3355,13 @@
         <v>10</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G34" s="2">
         <v>21800</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>47</v>
@@ -3381,10 +3387,10 @@
         <v>100</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D35" s="2">
         <v>2252</v>
@@ -3393,13 +3399,13 @@
         <v>10</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G35" s="2">
         <v>22520</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>47</v>
@@ -3425,25 +3431,25 @@
         <v>101</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E36" s="2">
         <v>10</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G36" s="2">
         <v>34420</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>47</v>
@@ -3469,7 +3475,7 @@
         <v>102</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>33</v>
@@ -3481,13 +3487,13 @@
         <v>10</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G37" s="2">
         <v>8400</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>47</v>
@@ -3523,16 +3529,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3540,16 +3546,16 @@
         <v>125</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3557,16 +3563,16 @@
         <v>126</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3574,16 +3580,16 @@
         <v>127</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -3601,22 +3607,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E1" s="1">
         <v>2020088</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3624,22 +3630,22 @@
         <v>137</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E2" s="2">
         <v>2020088</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3647,22 +3653,22 @@
         <v>138</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E3" s="2">
         <v>2747491</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3670,22 +3676,22 @@
         <v>139</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E4" s="2">
         <v>460745</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3693,22 +3699,22 @@
         <v>141</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E5" s="2">
         <v>1213710</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -3716,22 +3722,22 @@
         <v>142</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E6" s="2">
         <v>15436</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳碧涵_2012-04-25_財產申報表_tmpd4df1.xlsx
+++ b/legislator/property/output/normal/陳碧涵_2012-04-25_財產申報表_tmpd4df1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="129">
   <si>
     <t>name</t>
   </si>
@@ -336,18 +336,18 @@
     <t>stock</t>
   </si>
   <si>
+    <t>company</t>
+  </si>
+  <si>
     <t>南山人壽</t>
   </si>
   <si>
+    <t>台銀人壽股份有限公司</t>
+  </si>
+  <si>
     <t>南山金福利21年期養老壽險</t>
   </si>
   <si>
-    <t>81.8.24生效已交20年餘額:109294</t>
-  </si>
-  <si>
-    <t>台銀人壽股份有限公司</t>
-  </si>
-  <si>
     <t>鴻福還本終身壽險</t>
   </si>
   <si>
@@ -357,49 +357,55 @@
     <t>廖◦陽</t>
   </si>
   <si>
-    <t>88.11.生效108.11止.</t>
-  </si>
-  <si>
-    <t>94.12.25生效20年期.</t>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
   </si>
   <si>
     <t>公教購屋貸款</t>
   </si>
   <si>
+    <t>房屋抵押貸款</t>
+  </si>
+  <si>
+    <t>信用貸款</t>
+  </si>
+  <si>
     <t>台灣銀行(水湳分行）臺中市北屯區祟德路</t>
   </si>
   <si>
+    <t>第一銀行(進化分行）臺中市北屯區進化北路</t>
+  </si>
+  <si>
+    <t>合作金庫(中興分行）臺中市北屯區公圜路</t>
+  </si>
+  <si>
     <t>94年12月13曰</t>
   </si>
   <si>
+    <t>94年12月13日</t>
+  </si>
+  <si>
+    <t>96年08月30日</t>
+  </si>
+  <si>
+    <t>89年01月27日</t>
+  </si>
+  <si>
+    <t>94年10月18闩</t>
+  </si>
+  <si>
     <t>購屋貸款</t>
   </si>
   <si>
-    <t>房屋抵押貸款</t>
-  </si>
-  <si>
-    <t>信用貸款</t>
-  </si>
-  <si>
-    <t>第一銀行(進化分行）臺中市北屯區進化北路</t>
-  </si>
-  <si>
-    <t>合作金庫(中興分行）臺中市北屯區公圜路</t>
-  </si>
-  <si>
-    <t>94年12月13日</t>
-  </si>
-  <si>
-    <t>96年08月30日</t>
-  </si>
-  <si>
-    <t>89年01月27日</t>
-  </si>
-  <si>
-    <t>94年10月18闩</t>
-  </si>
-  <si>
     <t>個人資金調度</t>
+  </si>
+  <si>
+    <t>debt</t>
   </si>
 </sst>
 </file>
@@ -3521,49 +3527,85 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>125</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>112</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1752</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" s="2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>126</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>109</v>
@@ -3574,13 +3616,31 @@
       <c r="E3" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1752</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" s="2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>127</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>110</v>
@@ -3589,7 +3649,25 @@
         <v>111</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1752</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" s="2">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -3599,67 +3677,109 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E1" s="1">
-        <v>2020088</v>
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>116</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>137</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E2" s="2">
         <v>2020088</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>126</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1752</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N2" s="2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>138</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="E3" s="2">
         <v>2747491</v>
@@ -3668,21 +3788,42 @@
         <v>122</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>127</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1752</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N3" s="2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>139</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E4" s="2">
         <v>460745</v>
@@ -3691,21 +3832,42 @@
         <v>123</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>127</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1752</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N4" s="2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>141</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E5" s="2">
         <v>1213710</v>
@@ -3714,21 +3876,42 @@
         <v>124</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>127</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1752</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N5" s="2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>142</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E6" s="2">
         <v>15436</v>
@@ -3737,7 +3920,28 @@
         <v>125</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1752</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N6" s="2">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
